--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3106297.675355043</v>
+        <v>-3108847.546480562</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>81.10337515512614</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>161.8065444188672</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>52.65236922093877</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>115.7342004477074</v>
+        <v>115.7342004477073</v>
       </c>
       <c r="T11" t="n">
-        <v>205.1755471108588</v>
+        <v>205.1755471108587</v>
       </c>
       <c r="U11" t="n">
         <v>251.0181545191987</v>
@@ -1464,10 +1464,10 @@
         <v>135.1531785887306</v>
       </c>
       <c r="H12" t="n">
-        <v>91.08138484612343</v>
+        <v>91.0813848461234</v>
       </c>
       <c r="I12" t="n">
-        <v>13.98366000199262</v>
+        <v>13.9836600019925</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>130.9985927576845</v>
+        <v>130.9985927576844</v>
       </c>
       <c r="T12" t="n">
         <v>191.3361271599657</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>159.5350877969269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.72638343396432</v>
+        <v>94.7263834339642</v>
       </c>
       <c r="S13" t="n">
         <v>192.014787639252</v>
@@ -1582,13 +1582,13 @@
         <v>220.0995534935248</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2188671956217</v>
+        <v>286.2188671956216</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>278.8112650348929</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>261.5459553935361</v>
+        <v>13.91332762480561</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247809</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1780,10 +1780,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572845</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262955</v>
+        <v>236.5013105534159</v>
       </c>
       <c r="C17" t="n">
         <v>271.3226185338225</v>
@@ -1853,7 +1853,7 @@
         <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>260.6435146316499</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
         <v>316.9714524162683</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099075</v>
+        <v>15.23748855099076</v>
       </c>
       <c r="T17" t="n">
-        <v>109.9676969024351</v>
+        <v>109.9676969024346</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217165</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V17" t="n">
         <v>233.8019852329498</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.36014869443201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>73.29654786144275</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102727</v>
+        <v>62.14364153070697</v>
       </c>
       <c r="E19" t="n">
         <v>52.48368940938408</v>
@@ -2020,7 +2020,7 @@
         <v>50.80474167713569</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172653024</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
         <v>192.2615649684278</v>
@@ -2062,10 +2062,10 @@
         <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y19" t="n">
         <v>124.6343801149097</v>
@@ -2090,10 +2090,10 @@
         <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>260.6435146316487</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433895</v>
       </c>
       <c r="H20" t="n">
         <v>200.6574911501354</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.2374885509905</v>
+        <v>15.23748855099076</v>
       </c>
       <c r="T20" t="n">
         <v>109.9676969024351</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217174</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V20" t="n">
         <v>233.8019852329498</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2239,7 @@
         <v>85.88170694475221</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>54.66519978102727</v>
@@ -2251,13 +2251,13 @@
         <v>51.47077478574616</v>
       </c>
       <c r="G22" t="n">
-        <v>79.5539767715233</v>
+        <v>74.5358562043849</v>
       </c>
       <c r="H22" t="n">
         <v>50.80474167713569</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172653024</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>95.81875209425681</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>109.9676969024351</v>
       </c>
       <c r="U23" t="n">
-        <v>157.044898721717</v>
+        <v>157.0448987217174</v>
       </c>
       <c r="V23" t="n">
         <v>233.8019852329498</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,13 +2479,13 @@
         <v>73.29654786144275</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E25" t="n">
         <v>52.48368940938408</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>72.07553502184314</v>
@@ -2494,7 +2494,7 @@
         <v>50.80474167713569</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172653024</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425681</v>
+        <v>98.2790732767984</v>
       </c>
       <c r="T25" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>195.0330462819482</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>124.6343801149097</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.23748855099095</v>
+        <v>15.23748855099076</v>
       </c>
       <c r="T26" t="n">
         <v>109.9676969024351</v>
       </c>
       <c r="U26" t="n">
-        <v>157.044898721717</v>
+        <v>157.0448987217165</v>
       </c>
       <c r="V26" t="n">
         <v>233.8019852329498</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2716,22 @@
         <v>73.29654786144275</v>
       </c>
       <c r="D28" t="n">
-        <v>54.66519978102727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>52.48368940938408</v>
+        <v>54.94401059192558</v>
       </c>
       <c r="F28" t="n">
         <v>51.47077478574616</v>
       </c>
       <c r="G28" t="n">
-        <v>79.55397677152315</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>50.80474167713569</v>
       </c>
       <c r="I28" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172653024</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>95.81875209425681</v>
@@ -2767,10 +2767,10 @@
         <v>125.5986760389841</v>
       </c>
       <c r="U28" t="n">
-        <v>192.2615649684278</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W28" t="n">
         <v>192.5727250994059</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="29">
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912453</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335023</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279767</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433877</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572831</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124541</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145486</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307963</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70874824091503</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092319</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124582</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007116</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115157</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>119.300593853375</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>196.6598613601163</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307967</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439328</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>239.4866237999609</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.9983213925779</v>
@@ -3986,10 +3986,10 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307976</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010729</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846411</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033368</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>170.231873425327</v>
+        <v>170.2318734253265</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>563.5756713588321</v>
+        <v>950.1755114229579</v>
       </c>
       <c r="C11" t="n">
-        <v>194.6131544184204</v>
+        <v>581.2129944825468</v>
       </c>
       <c r="D11" t="n">
-        <v>112.6905532516262</v>
+        <v>222.9472958757964</v>
       </c>
       <c r="E11" t="n">
-        <v>112.6905532516262</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="F11" t="n">
-        <v>112.6905532516262</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="G11" t="n">
-        <v>112.6905532516262</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="H11" t="n">
-        <v>112.6905532516262</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="I11" t="n">
-        <v>59.50634191734465</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="J11" t="n">
-        <v>224.2465989236534</v>
+        <v>224.2465989236498</v>
       </c>
       <c r="K11" t="n">
-        <v>521.888057915924</v>
+        <v>521.8880579159213</v>
       </c>
       <c r="L11" t="n">
-        <v>928.0403689119398</v>
+        <v>928.0403689119389</v>
       </c>
       <c r="M11" t="n">
-        <v>1411.632509511337</v>
+        <v>1411.632509511336</v>
       </c>
       <c r="N11" t="n">
-        <v>1907.663484904482</v>
+        <v>1907.663484904483</v>
       </c>
       <c r="O11" t="n">
-        <v>2362.716207938325</v>
+        <v>2362.716207938327</v>
       </c>
       <c r="P11" t="n">
-        <v>2716.592178171923</v>
+        <v>2716.592178171926</v>
       </c>
       <c r="Q11" t="n">
-        <v>2934.165547694296</v>
+        <v>2934.165547694299</v>
       </c>
       <c r="R11" t="n">
-        <v>2975.317095867233</v>
+        <v>2975.317095867236</v>
       </c>
       <c r="S11" t="n">
-        <v>2858.413863091771</v>
+        <v>2858.413863091774</v>
       </c>
       <c r="T11" t="n">
-        <v>2651.165835707065</v>
+        <v>2651.165835707068</v>
       </c>
       <c r="U11" t="n">
-        <v>2397.61214427353</v>
+        <v>2397.612144273534</v>
       </c>
       <c r="V11" t="n">
-        <v>2066.549256929959</v>
+        <v>2066.549256929964</v>
       </c>
       <c r="W11" t="n">
-        <v>1713.780601659845</v>
+        <v>1713.780601659849</v>
       </c>
       <c r="X11" t="n">
-        <v>1340.314843398766</v>
+        <v>1340.31484339877</v>
       </c>
       <c r="Y11" t="n">
-        <v>950.1755114229538</v>
+        <v>950.1755114229579</v>
       </c>
     </row>
     <row r="12">
@@ -5103,46 +5103,46 @@
         <v>607.9230250341441</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6855700286886</v>
+        <v>448.6855700286885</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1510120555736</v>
+        <v>302.1510120555735</v>
       </c>
       <c r="G12" t="n">
-        <v>165.6326498447346</v>
+        <v>165.6326498447345</v>
       </c>
       <c r="H12" t="n">
-        <v>73.6312510102665</v>
+        <v>73.63125101026645</v>
       </c>
       <c r="I12" t="n">
-        <v>59.50634191734466</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="J12" t="n">
-        <v>138.8066634495631</v>
+        <v>138.8066634495635</v>
       </c>
       <c r="K12" t="n">
-        <v>352.4983684424273</v>
+        <v>352.4983684424282</v>
       </c>
       <c r="L12" t="n">
-        <v>686.1557781548172</v>
+        <v>686.1557781548187</v>
       </c>
       <c r="M12" t="n">
-        <v>1094.875105858137</v>
+        <v>1094.875105858139</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.820662899194</v>
+        <v>1528.820662899197</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.576274247091</v>
+        <v>1903.576274247095</v>
       </c>
       <c r="P12" t="n">
-        <v>2384.501919715896</v>
+        <v>2185.017625148816</v>
       </c>
       <c r="Q12" t="n">
-        <v>2522.718813076658</v>
+        <v>2522.718813076657</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.195752580173</v>
+        <v>2558.195752580172</v>
       </c>
       <c r="S12" t="n">
         <v>2425.873941713824</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.6528952475736</v>
+        <v>228.4425248452516</v>
       </c>
       <c r="C13" t="n">
-        <v>220.6528952475736</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="D13" t="n">
-        <v>220.6528952475736</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="E13" t="n">
-        <v>220.6528952475736</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="F13" t="n">
-        <v>220.6528952475737</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="G13" t="n">
-        <v>59.50634191734466</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="H13" t="n">
-        <v>59.50634191734466</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="I13" t="n">
-        <v>59.50634191734466</v>
+        <v>59.50634191734473</v>
       </c>
       <c r="J13" t="n">
-        <v>95.60933924004371</v>
+        <v>95.60933924004414</v>
       </c>
       <c r="K13" t="n">
-        <v>284.7744909573735</v>
+        <v>284.774490957374</v>
       </c>
       <c r="L13" t="n">
-        <v>582.3671924762359</v>
+        <v>582.3671924762369</v>
       </c>
       <c r="M13" t="n">
-        <v>906.5260937467112</v>
+        <v>906.5260937467126</v>
       </c>
       <c r="N13" t="n">
-        <v>1228.411837297597</v>
+        <v>1228.411837297599</v>
       </c>
       <c r="O13" t="n">
-        <v>1509.709124669647</v>
+        <v>1509.709124669649</v>
       </c>
       <c r="P13" t="n">
-        <v>1726.886867395599</v>
+        <v>1726.886867395601</v>
       </c>
       <c r="Q13" t="n">
-        <v>1793.814399097896</v>
+        <v>1793.814399097899</v>
       </c>
       <c r="R13" t="n">
-        <v>1698.131183508033</v>
+        <v>1698.131183508036</v>
       </c>
       <c r="S13" t="n">
-        <v>1504.176852559294</v>
+        <v>1504.176852559297</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.854071252703</v>
+        <v>1281.854071252706</v>
       </c>
       <c r="U13" t="n">
-        <v>992.7441043884385</v>
+        <v>992.7441043884415</v>
       </c>
       <c r="V13" t="n">
-        <v>738.0596161825516</v>
+        <v>738.0596161825547</v>
       </c>
       <c r="W13" t="n">
-        <v>448.642446145591</v>
+        <v>456.432075743269</v>
       </c>
       <c r="X13" t="n">
-        <v>220.6528952475736</v>
+        <v>228.4425248452516</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.6528952475736</v>
+        <v>228.4425248452516</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464214</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>979.8546354718762</v>
+        <v>979.8546354718735</v>
       </c>
       <c r="D14" t="n">
-        <v>669.0385698131989</v>
+        <v>669.0385698131963</v>
       </c>
       <c r="E14" t="n">
-        <v>330.699950163028</v>
+        <v>330.6999501630254</v>
       </c>
       <c r="F14" t="n">
-        <v>330.699950163028</v>
+        <v>330.6999501630254</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243049</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921008</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608001</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580263</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.9645830488</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004535</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.534899293931</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E17" t="n">
-        <v>852.6459125918334</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F17" t="n">
         <v>589.3696351861265</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081058</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032414</v>
+        <v>3310.214419032411</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312783</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482766</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035342</v>
+        <v>2804.341105035338</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661374</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.90522329644</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216775</v>
+        <v>1972.665157216772</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687816</v>
+        <v>434.8728007341145</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370212</v>
+        <v>360.8358837023542</v>
       </c>
       <c r="D19" t="n">
         <v>298.064528620832</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345855</v>
+        <v>245.0507009345854</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328217</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036872</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769154</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1518.910857138519</v>
       </c>
       <c r="U19" t="n">
-        <v>1229.807990264163</v>
+        <v>1324.707256160309</v>
       </c>
       <c r="V19" t="n">
-        <v>1070.022767954423</v>
+        <v>1164.922033850569</v>
       </c>
       <c r="W19" t="n">
-        <v>875.5048638136087</v>
+        <v>875.5048638136086</v>
       </c>
       <c r="X19" t="n">
-        <v>647.5153129155914</v>
+        <v>742.4145788117378</v>
       </c>
       <c r="Y19" t="n">
-        <v>521.6219996682079</v>
+        <v>616.5212655643543</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048799</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004534</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.53489929393</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6459125918323</v>
+        <v>852.6459125918313</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861265</v>
+        <v>536.5592736983704</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272697</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
         <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.341105035341</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661373</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.90522329644</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216774</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.8728007341151</v>
+        <v>524.7032579765864</v>
       </c>
       <c r="C22" t="n">
-        <v>360.8358837023547</v>
+        <v>355.7670750486795</v>
       </c>
       <c r="D22" t="n">
-        <v>305.6185101861655</v>
+        <v>300.5497015324904</v>
       </c>
       <c r="E22" t="n">
-        <v>252.604682499919</v>
+        <v>247.5358738462438</v>
       </c>
       <c r="F22" t="n">
-        <v>200.6140008981552</v>
+        <v>195.54519224448</v>
       </c>
       <c r="G22" t="n">
         <v>120.2564486036872</v>
@@ -5905,19 +5905,19 @@
         <v>68.93852771769153</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1740.677472568994</v>
+        <v>1830.507929811465</v>
       </c>
       <c r="T22" t="n">
-        <v>1613.810123034666</v>
+        <v>1608.741314380991</v>
       </c>
       <c r="U22" t="n">
-        <v>1324.70725616031</v>
+        <v>1414.537713402781</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.92203385057</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W22" t="n">
-        <v>970.4041297097557</v>
+        <v>870.4360551599339</v>
       </c>
       <c r="X22" t="n">
-        <v>742.4145788117384</v>
+        <v>737.345770158063</v>
       </c>
       <c r="Y22" t="n">
-        <v>521.6219996682082</v>
+        <v>611.4524569106795</v>
       </c>
     </row>
     <row r="23">
@@ -5969,58 +5969,58 @@
         <v>1460.789455971631</v>
       </c>
       <c r="D23" t="n">
-        <v>1197.423023261027</v>
+        <v>1197.423023261028</v>
       </c>
       <c r="E23" t="n">
-        <v>906.5340365589293</v>
+        <v>906.53403655893</v>
       </c>
       <c r="F23" t="n">
-        <v>590.4473976654684</v>
+        <v>590.447397665469</v>
       </c>
       <c r="G23" t="n">
         <v>270.2742134066116</v>
       </c>
       <c r="H23" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152537</v>
       </c>
       <c r="I23" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152537</v>
       </c>
       <c r="J23" t="n">
-        <v>256.4690098705508</v>
+        <v>256.4690098705507</v>
       </c>
       <c r="K23" t="n">
-        <v>590.2883835603973</v>
+        <v>590.2883835603971</v>
       </c>
       <c r="L23" t="n">
         <v>1041.322596808806</v>
       </c>
       <c r="M23" t="n">
-        <v>1574.854501480731</v>
+        <v>1627.664862968487</v>
       </c>
       <c r="N23" t="n">
-        <v>2121.633318539513</v>
+        <v>2174.443680027269</v>
       </c>
       <c r="O23" t="n">
-        <v>2624.60578941885</v>
+        <v>2677.416150906606</v>
       </c>
       <c r="P23" t="n">
-        <v>3019.380155776028</v>
+        <v>3072.190517263784</v>
       </c>
       <c r="Q23" t="n">
-        <v>3267.66651753171</v>
+        <v>3320.476879019466</v>
       </c>
       <c r="R23" t="n">
-        <v>3379.493945576268</v>
+        <v>3379.493945576269</v>
       </c>
       <c r="S23" t="n">
-        <v>3364.10254299951</v>
+        <v>3364.102542999511</v>
       </c>
       <c r="T23" t="n">
-        <v>3253.024061279878</v>
+        <v>3253.024061279879</v>
       </c>
       <c r="U23" t="n">
-        <v>3094.392850449861</v>
+        <v>3094.392850449862</v>
       </c>
       <c r="V23" t="n">
         <v>2858.229229002437</v>
@@ -6029,10 +6029,10 @@
         <v>2600.35983962847</v>
       </c>
       <c r="X23" t="n">
-        <v>2321.793347263536</v>
+        <v>2321.793347263537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2026.553281183871</v>
+        <v>2026.553281183872</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>942.6216169604506</v>
+        <v>942.6216169604502</v>
       </c>
       <c r="C24" t="n">
-        <v>768.1685876793237</v>
+        <v>768.1685876793232</v>
       </c>
       <c r="D24" t="n">
-        <v>619.2341780180724</v>
+        <v>619.2341780180719</v>
       </c>
       <c r="E24" t="n">
-        <v>459.9967230126169</v>
+        <v>459.9967230126164</v>
       </c>
       <c r="F24" t="n">
-        <v>313.4621650395019</v>
+        <v>313.4621650395014</v>
       </c>
       <c r="G24" t="n">
-        <v>177.09906487212</v>
+        <v>177.0990648721195</v>
       </c>
       <c r="H24" t="n">
-        <v>86.59717050998751</v>
+        <v>86.59717050998704</v>
       </c>
       <c r="I24" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152537</v>
       </c>
       <c r="J24" t="n">
         <v>161.2671484021427</v>
       </c>
       <c r="K24" t="n">
-        <v>399.5313473824899</v>
+        <v>399.5313473824897</v>
       </c>
       <c r="L24" t="n">
-        <v>766.2295076951552</v>
+        <v>766.229507695155</v>
       </c>
       <c r="M24" t="n">
         <v>1213.505832917471</v>
       </c>
       <c r="N24" t="n">
-        <v>1687.028876471926</v>
+        <v>1687.028876471925</v>
       </c>
       <c r="O24" t="n">
-        <v>2097.990155889981</v>
+        <v>2097.99015588998</v>
       </c>
       <c r="P24" t="n">
-        <v>2408.489747366084</v>
+        <v>2408.489747366083</v>
       </c>
       <c r="Q24" t="n">
         <v>2566.131305012683</v>
       </c>
       <c r="R24" t="n">
-        <v>2565.986951605199</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S24" t="n">
-        <v>2436.549065098679</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T24" t="n">
         <v>2243.906064776534</v>
       </c>
       <c r="U24" t="n">
-        <v>2015.83821791095</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V24" t="n">
         <v>1780.686109679207</v>
@@ -6108,10 +6108,10 @@
         <v>1526.448752951005</v>
       </c>
       <c r="X24" t="n">
-        <v>1318.597252745473</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y24" t="n">
-        <v>1110.836953980519</v>
+        <v>1110.836953980518</v>
       </c>
     </row>
     <row r="25">
@@ -6127,10 +6127,10 @@
         <v>449.2589305125097</v>
       </c>
       <c r="D25" t="n">
-        <v>299.142291100174</v>
+        <v>394.0415569963205</v>
       </c>
       <c r="E25" t="n">
-        <v>246.1284634139274</v>
+        <v>341.027729310074</v>
       </c>
       <c r="F25" t="n">
         <v>194.1377818121636</v>
@@ -6139,10 +6139,10 @@
         <v>121.3342110830291</v>
       </c>
       <c r="H25" t="n">
-        <v>70.01629019703346</v>
+        <v>70.01629019703348</v>
       </c>
       <c r="I25" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152537</v>
       </c>
       <c r="J25" t="n">
         <v>112.7125113584609</v>
@@ -6154,37 +6154,37 @@
         <v>633.2594927558334</v>
       </c>
       <c r="M25" t="n">
-        <v>977.4165383553825</v>
+        <v>977.4165383553824</v>
       </c>
       <c r="N25" t="n">
         <v>1318.824915061247</v>
       </c>
       <c r="O25" t="n">
-        <v>1618.154513981661</v>
+        <v>1618.15451398166</v>
       </c>
       <c r="P25" t="n">
         <v>1850.76201441532</v>
       </c>
       <c r="Q25" t="n">
-        <v>1928.372310567835</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="R25" t="n">
-        <v>1928.372310567835</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="S25" t="n">
-        <v>1831.585692290808</v>
+        <v>1829.100519379149</v>
       </c>
       <c r="T25" t="n">
-        <v>1704.71834275648</v>
+        <v>1702.233169844822</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.615475882124</v>
+        <v>1508.029568866612</v>
       </c>
       <c r="V25" t="n">
-        <v>1160.930987676237</v>
+        <v>1253.345080660725</v>
       </c>
       <c r="W25" t="n">
-        <v>963.9279106237641</v>
+        <v>1058.827176519911</v>
       </c>
       <c r="X25" t="n">
         <v>830.8376256218933</v>
@@ -6209,55 +6209,55 @@
         <v>1197.423023261027</v>
       </c>
       <c r="E26" t="n">
-        <v>906.5340365589293</v>
+        <v>906.5340365589295</v>
       </c>
       <c r="F26" t="n">
-        <v>590.4473976654683</v>
+        <v>590.4473976654685</v>
       </c>
       <c r="G26" t="n">
         <v>270.2742134066116</v>
       </c>
       <c r="H26" t="n">
-        <v>67.58987891152537</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I26" t="n">
-        <v>67.58987891152537</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J26" t="n">
-        <v>256.4690098705508</v>
+        <v>256.4690098705507</v>
       </c>
       <c r="K26" t="n">
-        <v>590.2883835603973</v>
+        <v>590.2883835603971</v>
       </c>
       <c r="L26" t="n">
         <v>1041.322596808806</v>
       </c>
       <c r="M26" t="n">
-        <v>1574.854501480731</v>
+        <v>1574.85450148073</v>
       </c>
       <c r="N26" t="n">
-        <v>2121.633318539513</v>
+        <v>2174.443680027268</v>
       </c>
       <c r="O26" t="n">
-        <v>2624.60578941885</v>
+        <v>2677.416150906605</v>
       </c>
       <c r="P26" t="n">
-        <v>3019.380155776028</v>
+        <v>3072.190517263783</v>
       </c>
       <c r="Q26" t="n">
-        <v>3267.66651753171</v>
+        <v>3320.476879019465</v>
       </c>
       <c r="R26" t="n">
-        <v>3379.493945576269</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S26" t="n">
-        <v>3364.10254299951</v>
+        <v>3364.102542999509</v>
       </c>
       <c r="T26" t="n">
-        <v>3253.024061279879</v>
+        <v>3253.024061279878</v>
       </c>
       <c r="U26" t="n">
-        <v>3094.392850449862</v>
+        <v>3094.392850449861</v>
       </c>
       <c r="V26" t="n">
         <v>2858.229229002437</v>
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.6216169604506</v>
+        <v>942.6216169604502</v>
       </c>
       <c r="C27" t="n">
-        <v>768.1685876793237</v>
+        <v>768.1685876793232</v>
       </c>
       <c r="D27" t="n">
-        <v>619.2341780180724</v>
+        <v>619.2341780180719</v>
       </c>
       <c r="E27" t="n">
-        <v>459.9967230126169</v>
+        <v>459.9967230126164</v>
       </c>
       <c r="F27" t="n">
-        <v>313.4621650395019</v>
+        <v>313.4621650395014</v>
       </c>
       <c r="G27" t="n">
-        <v>177.09906487212</v>
+        <v>177.0990648721195</v>
       </c>
       <c r="H27" t="n">
-        <v>86.59717050998751</v>
+        <v>86.59717050998704</v>
       </c>
       <c r="I27" t="n">
-        <v>67.58987891152537</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J27" t="n">
         <v>161.2671484021427</v>
       </c>
       <c r="K27" t="n">
-        <v>399.5313473824899</v>
+        <v>399.5313473824897</v>
       </c>
       <c r="L27" t="n">
-        <v>766.2295076951552</v>
+        <v>766.229507695155</v>
       </c>
       <c r="M27" t="n">
         <v>1213.505832917471</v>
       </c>
       <c r="N27" t="n">
-        <v>1687.028876471926</v>
+        <v>1687.028876471925</v>
       </c>
       <c r="O27" t="n">
-        <v>2097.990155889981</v>
+        <v>2097.99015588998</v>
       </c>
       <c r="P27" t="n">
-        <v>2408.489747366084</v>
+        <v>2408.489747366083</v>
       </c>
       <c r="Q27" t="n">
         <v>2566.131305012683</v>
       </c>
       <c r="R27" t="n">
-        <v>2565.986951605199</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S27" t="n">
-        <v>2436.549065098679</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T27" t="n">
         <v>2243.906064776534</v>
       </c>
       <c r="U27" t="n">
-        <v>2015.83821791095</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V27" t="n">
         <v>1780.686109679207</v>
@@ -6345,10 +6345,10 @@
         <v>1526.448752951005</v>
       </c>
       <c r="X27" t="n">
-        <v>1318.597252745473</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y27" t="n">
-        <v>1110.836953980519</v>
+        <v>1110.836953980518</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.9505632134569</v>
+        <v>620.6802863520747</v>
       </c>
       <c r="C28" t="n">
-        <v>361.9136461816965</v>
+        <v>546.6433693203144</v>
       </c>
       <c r="D28" t="n">
-        <v>306.6962726655073</v>
+        <v>396.5267299079786</v>
       </c>
       <c r="E28" t="n">
-        <v>253.6824449792608</v>
+        <v>341.027729310074</v>
       </c>
       <c r="F28" t="n">
-        <v>201.691763377497</v>
+        <v>289.0370477083102</v>
       </c>
       <c r="G28" t="n">
         <v>121.3342110830291</v>
@@ -6379,55 +6379,55 @@
         <v>70.01629019703347</v>
       </c>
       <c r="I28" t="n">
-        <v>67.58987891152537</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J28" t="n">
         <v>112.7125113584609</v>
       </c>
       <c r="K28" t="n">
-        <v>316.6996943073373</v>
+        <v>316.6996943073372</v>
       </c>
       <c r="L28" t="n">
-        <v>633.2594927558334</v>
+        <v>633.2594927558333</v>
       </c>
       <c r="M28" t="n">
-        <v>977.4165383553825</v>
+        <v>977.4165383553823</v>
       </c>
       <c r="N28" t="n">
         <v>1318.824915061247</v>
       </c>
       <c r="O28" t="n">
-        <v>1618.154513981661</v>
+        <v>1618.15451398166</v>
       </c>
       <c r="P28" t="n">
         <v>1850.76201441532</v>
       </c>
       <c r="Q28" t="n">
-        <v>1928.372310567835</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="R28" t="n">
-        <v>1838.541853325363</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="S28" t="n">
-        <v>1741.755235048336</v>
+        <v>1831.585692290807</v>
       </c>
       <c r="T28" t="n">
-        <v>1614.887885514008</v>
+        <v>1704.71834275648</v>
       </c>
       <c r="U28" t="n">
-        <v>1420.684284535798</v>
+        <v>1415.615475882123</v>
       </c>
       <c r="V28" t="n">
-        <v>1165.999796329912</v>
+        <v>1255.830253572383</v>
       </c>
       <c r="W28" t="n">
-        <v>971.4818921890975</v>
+        <v>1061.312349431569</v>
       </c>
       <c r="X28" t="n">
-        <v>743.4923412910802</v>
+        <v>833.3227985335513</v>
       </c>
       <c r="Y28" t="n">
-        <v>522.69976214755</v>
+        <v>707.4294852861678</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603403</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805549</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277853</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014867</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7008,25 +7008,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.7336441225987</v>
+        <v>500.9308303909354</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685351</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300427</v>
+        <v>379.2208771983797</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1668.551646658396</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205426</v>
+        <v>835.3471215411921</v>
       </c>
       <c r="X37" t="n">
-        <v>757.5032535225253</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789951</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464976</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307335</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7190,7 +7190,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7199,13 +7199,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225991</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685356</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>332.0236909300432</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214936</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974267</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>978.8956707359731</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728559</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X40" t="n">
-        <v>658.831818948682</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789953</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464967</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307327</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7433,28 +7433,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647786</v>
+        <v>444.892666791227</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368717</v>
+        <v>374.6279184371635</v>
       </c>
       <c r="D43" t="n">
-        <v>280.549442624536</v>
+        <v>323.1827135986712</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159864</v>
+        <v>273.9410545901215</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>225.7225416660545</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>156.6911396146169</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>109.1453874063181</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210196</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578152</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150352</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908613</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211748</v>
+        <v>527.8696970476234</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
@@ -7661,28 +7661,28 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049856</v>
@@ -7716,28 +7716,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170917</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630283</v>
       </c>
       <c r="D46" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919196</v>
@@ -7798,22 +7798,22 @@
         <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552289</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>877.980392515328</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170179</v>
+        <v>804.7004397908615</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734878</v>
+        <v>583.9078606473314</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>151.9373211211839</v>
+        <v>151.9373211211833</v>
       </c>
       <c r="K8" t="n">
-        <v>176.4636301419607</v>
+        <v>176.4636301419599</v>
       </c>
       <c r="L8" t="n">
-        <v>181.6442302454544</v>
+        <v>181.6442302454533</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1248744926649</v>
+        <v>170.1248744926637</v>
       </c>
       <c r="N8" t="n">
-        <v>168.2172603181649</v>
+        <v>168.2172603181637</v>
       </c>
       <c r="O8" t="n">
-        <v>172.3127496945468</v>
+        <v>172.3127496945457</v>
       </c>
       <c r="P8" t="n">
-        <v>181.9144410850623</v>
+        <v>181.9144410850613</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.2695092387294</v>
+        <v>185.2695092387287</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>109.5007538041093</v>
+        <v>109.5007538041089</v>
       </c>
       <c r="K9" t="n">
-        <v>108.2099618757667</v>
+        <v>108.2099618757661</v>
       </c>
       <c r="L9" t="n">
-        <v>98.7112020694194</v>
+        <v>98.71120206941862</v>
       </c>
       <c r="M9" t="n">
-        <v>95.63892481520139</v>
+        <v>95.63892481520048</v>
       </c>
       <c r="N9" t="n">
-        <v>83.61601578897398</v>
+        <v>83.61601578897306</v>
       </c>
       <c r="O9" t="n">
-        <v>98.93655630669997</v>
+        <v>98.93655630669912</v>
       </c>
       <c r="P9" t="n">
-        <v>98.93365857769192</v>
+        <v>98.93365857769123</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.5579614593156</v>
+        <v>116.5579614593152</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>112.012634941702</v>
+        <v>112.0126349417015</v>
       </c>
       <c r="M10" t="n">
-        <v>114.8104232518961</v>
+        <v>114.8104232518956</v>
       </c>
       <c r="N10" t="n">
-        <v>104.1435931463867</v>
+        <v>104.1435931463863</v>
       </c>
       <c r="O10" t="n">
-        <v>116.7117360336509</v>
+        <v>116.7117360336505</v>
       </c>
       <c r="P10" t="n">
-        <v>119.1215690496863</v>
+        <v>119.1215690496859</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>201.4992874414992</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>201.4992874414931</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>53.34379948258299</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>53.34379948258085</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>53.34379948258197</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>53.34379948258176</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431563</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514876</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.504346766633583e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.95977419130993</v>
+        <v>14.95977419130992</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>273.5796664655568</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>220.1238256533946</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23276,7 @@
         <v>297.549891207811</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>52.65236922093854</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>6.619585278929264</v>
+        <v>166.1546730758561</v>
       </c>
       <c r="H13" t="n">
         <v>145.9007402857544</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.711733301698132</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>102.4006336413248</v>
+        <v>350.0332614100553</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>52.28225787288011</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>52.28225787287647</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>52.28225787287769</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.2822578728788</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1523532.768172063</v>
+        <v>1523532.768172062</v>
       </c>
     </row>
     <row r="5">
@@ -26369,43 +26369,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>73062.49976257893</v>
+        <v>73062.49976258035</v>
       </c>
       <c r="E3" t="n">
         <v>971668.6070634796</v>
       </c>
       <c r="F3" t="n">
-        <v>119158.121229131</v>
+        <v>119158.1212291291</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3582.495953363558</v>
+        <v>3582.495953363679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>43614.34690207045</v>
+        <v>43614.34690207051</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>180344.7620902758</v>
+        <v>180344.7620902759</v>
       </c>
       <c r="N3" t="n">
-        <v>21448.79168244905</v>
+        <v>21448.79168244875</v>
       </c>
       <c r="O3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>430056.4737110719</v>
+        <v>430056.4737110713</v>
       </c>
       <c r="E4" t="n">
-        <v>19108.16096644411</v>
+        <v>19108.16096644397</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364776</v>
+        <v>60655.3332736478</v>
       </c>
       <c r="G4" t="n">
-        <v>90418.49996534975</v>
+        <v>90418.49996534977</v>
       </c>
       <c r="H4" t="n">
-        <v>90418.49996534975</v>
+        <v>90418.49996534978</v>
       </c>
       <c r="I4" t="n">
-        <v>92654.10659538503</v>
+        <v>92654.10659538512</v>
       </c>
       <c r="J4" t="n">
-        <v>92654.10659538506</v>
+        <v>92654.10659538509</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462826</v>
+        <v>91012.35309462833</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462821</v>
+        <v>91012.35309462833</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="O4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="P4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.8428831941</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35487.40436427268</v>
+        <v>35487.40436427271</v>
       </c>
       <c r="E5" t="n">
-        <v>67424.09344449983</v>
+        <v>67424.09344449991</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217023</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="I5" t="n">
+        <v>83023.7455664701</v>
+      </c>
+      <c r="J5" t="n">
         <v>83023.74556647008</v>
-      </c>
-      <c r="J5" t="n">
-        <v>83023.7455664701</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-491402.9608255374</v>
+        <v>-491407.3744034056</v>
       </c>
       <c r="C6" t="n">
-        <v>-491402.9608255374</v>
+        <v>-491407.3744034056</v>
       </c>
       <c r="D6" t="n">
-        <v>-538606.3778379235</v>
+        <v>-538610.723166091</v>
       </c>
       <c r="E6" t="n">
-        <v>-1058200.861474423</v>
+        <v>-1058628.852245718</v>
       </c>
       <c r="F6" t="n">
-        <v>-258068.9478245606</v>
+        <v>-258210.2247244948</v>
       </c>
       <c r="G6" t="n">
-        <v>-210203.255342394</v>
+        <v>-210213.6595117107</v>
       </c>
       <c r="H6" t="n">
-        <v>-172623.14604752</v>
+        <v>-172633.5502168367</v>
       </c>
       <c r="I6" t="n">
-        <v>-179260.3481152187</v>
+        <v>-179260.3481152189</v>
       </c>
       <c r="J6" t="n">
-        <v>-175677.8521618551</v>
+        <v>-175677.8521618552</v>
       </c>
       <c r="K6" t="n">
-        <v>-224004.6416715048</v>
+        <v>-224004.6416715049</v>
       </c>
       <c r="L6" t="n">
-        <v>-217970.4040643083</v>
+        <v>-217970.4040643085</v>
       </c>
       <c r="M6" t="n">
-        <v>-355657.2022797196</v>
+        <v>-355657.2022797198</v>
       </c>
       <c r="N6" t="n">
-        <v>-196761.2318718929</v>
+        <v>-196761.2318718927</v>
       </c>
       <c r="O6" t="n">
         <v>-175312.4401894439</v>
@@ -26710,22 +26710,22 @@
         <v>93.95027323718509</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.31212680149896</v>
+        <v>85.31212680150063</v>
       </c>
       <c r="E3" t="n">
-        <v>1018.315302170545</v>
+        <v>1018.315302170547</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>743.8292739668082</v>
+        <v>743.8292739668091</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>844.8734863940672</v>
+      </c>
+      <c r="J4" t="n">
         <v>844.873486394067</v>
-      </c>
-      <c r="J4" t="n">
-        <v>844.8734863940672</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="O4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>50.7095836095124</v>
+        <v>50.70958360951248</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.13686837721616e-13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.31212680149896</v>
+        <v>85.31212680150063</v>
       </c>
       <c r="E3" t="n">
-        <v>933.0031753690463</v>
+        <v>933.0031753690461</v>
       </c>
       <c r="F3" t="n">
-        <v>71.46139842275329</v>
+        <v>71.46139842275136</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>743.8292739668082</v>
+        <v>743.8292739668091</v>
       </c>
       <c r="F4" t="n">
-        <v>87.57218143548494</v>
+        <v>87.57218143548357</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.47203099177409</v>
+        <v>13.47203099177455</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>169.4629748145475</v>
+        <v>169.4629748145477</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>560.8942681604864</v>
+        <v>560.8942681604867</v>
       </c>
       <c r="N4" t="n">
-        <v>87.57218143548471</v>
+        <v>87.57218143548414</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>743.8292739668082</v>
+        <v>743.8292739668091</v>
       </c>
       <c r="N4" t="n">
-        <v>87.57218143548494</v>
+        <v>87.57218143548357</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>335.9624289756431</v>
+        <v>335.962428975643</v>
       </c>
       <c r="I8" t="n">
-        <v>197.2537960286379</v>
+        <v>197.2537960286377</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>128.3254480509199</v>
+        <v>128.3254480509195</v>
       </c>
       <c r="S8" t="n">
-        <v>201.2047928445804</v>
+        <v>201.2047928445802</v>
       </c>
       <c r="T8" t="n">
         <v>221.5945276140869</v>
@@ -27947,10 +27947,10 @@
         <v>137.1600156074489</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4632055269031</v>
+        <v>110.463205526903</v>
       </c>
       <c r="I9" t="n">
-        <v>83.07870647979463</v>
+        <v>83.0787064797945</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>88.76464106771842</v>
+        <v>88.7646410677182</v>
       </c>
       <c r="S9" t="n">
-        <v>168.2747101887025</v>
+        <v>168.2747101887024</v>
       </c>
       <c r="T9" t="n">
         <v>199.4250886520803</v>
@@ -28026,16 +28026,16 @@
         <v>167.8371378183249</v>
       </c>
       <c r="H10" t="n">
-        <v>160.8593813597041</v>
+        <v>160.859381359704</v>
       </c>
       <c r="I10" t="n">
-        <v>150.8240402475967</v>
+        <v>150.8240402475966</v>
       </c>
       <c r="J10" t="n">
-        <v>82.48258322920954</v>
+        <v>82.48258322920933</v>
       </c>
       <c r="K10" t="n">
-        <v>4.395901981240943</v>
+        <v>4.395901981240595</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.27991210466804</v>
+        <v>73.27991210466779</v>
       </c>
       <c r="R10" t="n">
-        <v>170.3761163089693</v>
+        <v>170.3761163089691</v>
       </c>
       <c r="S10" t="n">
-        <v>221.335559560276</v>
+        <v>221.3355595602759</v>
       </c>
       <c r="T10" t="n">
         <v>227.2882664840732</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>93.95027323718509</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47183148750528</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>93.95027323718509</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718509</v>
+        <v>86.4718314875054</v>
       </c>
       <c r="E19" t="n">
         <v>93.95027323718509</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U19" t="n">
         <v>93.95027323718509</v>
@@ -28782,10 +28782,10 @@
         <v>93.95027323718509</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>93.95027323718509</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>93.95027323718509</v>
@@ -28819,7 +28819,7 @@
         <v>93.95027323718509</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>93.95027323718509</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>93.95027323718509</v>
@@ -28971,7 +28971,7 @@
         <v>93.95027323718509</v>
       </c>
       <c r="G22" t="n">
-        <v>86.47183148750493</v>
+        <v>91.48995205464333</v>
       </c>
       <c r="H22" t="n">
         <v>93.95027323718509</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>93.95027323718509</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>93.95027323718509</v>
       </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>93.95027323718509</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
         <v>93.95027323718509</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>93.95027323718509</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29199,13 +29199,13 @@
         <v>93.95027323718509</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E25" t="n">
         <v>93.95027323718509</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>93.95027323718509</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718509</v>
+        <v>91.4899520546435</v>
       </c>
       <c r="T25" t="n">
         <v>93.95027323718509</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>91.48995205464283</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>93.95027323718509</v>
@@ -29293,7 +29293,7 @@
         <v>93.95027323718509</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29436,16 +29436,16 @@
         <v>93.95027323718509</v>
       </c>
       <c r="D28" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>93.95027323718509</v>
+        <v>91.4899520546436</v>
       </c>
       <c r="F28" t="n">
         <v>93.95027323718509</v>
       </c>
       <c r="G28" t="n">
-        <v>86.47183148750507</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>93.95027323718509</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>93.95027323718509</v>
@@ -29487,10 +29487,10 @@
         <v>93.95027323718509</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>93.95027323718509</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>93.95027323718509</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859375</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859369</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E37" t="n">
-        <v>46.72521440565414</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>55.47778196371104</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565322</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.47778196371175</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544484</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>46.72521440565194</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X46" t="n">
-        <v>55.47778196371013</v>
+        <v>55.4777819637107</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3429633238251212</v>
+        <v>0.3429633238251279</v>
       </c>
       <c r="H8" t="n">
-        <v>3.512373140124023</v>
+        <v>3.512373140124092</v>
       </c>
       <c r="I8" t="n">
-        <v>13.222093541768</v>
+        <v>13.22209354176826</v>
       </c>
       <c r="J8" t="n">
-        <v>29.10858340550241</v>
+        <v>29.10858340550297</v>
       </c>
       <c r="K8" t="n">
-        <v>43.62622090301979</v>
+        <v>43.62622090302064</v>
       </c>
       <c r="L8" t="n">
-        <v>54.12218472453286</v>
+        <v>54.12218472453392</v>
       </c>
       <c r="M8" t="n">
-        <v>60.22135873460785</v>
+        <v>60.22135873460903</v>
       </c>
       <c r="N8" t="n">
-        <v>61.19580327842598</v>
+        <v>61.19580327842718</v>
       </c>
       <c r="O8" t="n">
-        <v>57.78546172713993</v>
+        <v>57.78546172714106</v>
       </c>
       <c r="P8" t="n">
-        <v>49.31855467020725</v>
+        <v>49.31855467020821</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.03618063572008</v>
+        <v>37.0361806357208</v>
       </c>
       <c r="R8" t="n">
-        <v>21.54366989022979</v>
+        <v>21.54366989023021</v>
       </c>
       <c r="S8" t="n">
-        <v>7.815276741664957</v>
+        <v>7.81527674166511</v>
       </c>
       <c r="T8" t="n">
-        <v>1.501321950044469</v>
+        <v>1.501321950044498</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02743706590600969</v>
+        <v>0.02743706590601023</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1835015557617148</v>
+        <v>0.1835015557617183</v>
       </c>
       <c r="H9" t="n">
-        <v>1.772238709593403</v>
+        <v>1.772238709593438</v>
       </c>
       <c r="I9" t="n">
-        <v>6.317926371620443</v>
+        <v>6.317926371620566</v>
       </c>
       <c r="J9" t="n">
-        <v>17.33687286255745</v>
+        <v>17.33687286255779</v>
       </c>
       <c r="K9" t="n">
-        <v>29.63147709859233</v>
+        <v>29.63147709859291</v>
       </c>
       <c r="L9" t="n">
-        <v>39.84317771045478</v>
+        <v>39.84317771045556</v>
       </c>
       <c r="M9" t="n">
-        <v>46.49510910681693</v>
+        <v>46.49510910681784</v>
       </c>
       <c r="N9" t="n">
-        <v>47.72569629435932</v>
+        <v>47.72569629436025</v>
       </c>
       <c r="O9" t="n">
-        <v>43.65968813774447</v>
+        <v>43.65968813774533</v>
       </c>
       <c r="P9" t="n">
-        <v>35.04074883663832</v>
+        <v>35.040748836639</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.42381262670591</v>
+        <v>23.42381262670636</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39319308492471</v>
+        <v>11.39319308492494</v>
       </c>
       <c r="S9" t="n">
-        <v>3.408460915135357</v>
+        <v>3.408460915135424</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7396400427412974</v>
+        <v>0.7396400427413118</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01207247077379703</v>
+        <v>0.01207247077379726</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1538415401338506</v>
+        <v>0.1538415401338536</v>
       </c>
       <c r="H10" t="n">
-        <v>1.367791147735509</v>
+        <v>1.367791147735536</v>
       </c>
       <c r="I10" t="n">
-        <v>4.626434679661616</v>
+        <v>4.626434679661707</v>
       </c>
       <c r="J10" t="n">
-        <v>10.87659688746323</v>
+        <v>10.87659688746345</v>
       </c>
       <c r="K10" t="n">
-        <v>17.87358984464191</v>
+        <v>17.87358984464226</v>
       </c>
       <c r="L10" t="n">
-        <v>22.8720413395363</v>
+        <v>22.87204133953674</v>
       </c>
       <c r="M10" t="n">
-        <v>24.11536069570895</v>
+        <v>24.11536069570943</v>
       </c>
       <c r="N10" t="n">
-        <v>23.54195131884644</v>
+        <v>23.5419513188469</v>
       </c>
       <c r="O10" t="n">
-        <v>21.74480241819191</v>
+        <v>21.74480241819233</v>
       </c>
       <c r="P10" t="n">
-        <v>18.60643499946134</v>
+        <v>18.6064349994617</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.88213114702634</v>
+        <v>12.88213114702659</v>
       </c>
       <c r="R10" t="n">
-        <v>6.917275068200225</v>
+        <v>6.91727506820036</v>
       </c>
       <c r="S10" t="n">
-        <v>2.681038476696286</v>
+        <v>2.681038476696338</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6573229442082704</v>
+        <v>0.6573229442082833</v>
       </c>
       <c r="U10" t="n">
-        <v>0.008391356734573677</v>
+        <v>0.00839135673457384</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.093729857972038</v>
+        <v>4.093729857972044</v>
       </c>
       <c r="H11" t="n">
-        <v>41.92491090795615</v>
+        <v>41.9249109079562</v>
       </c>
       <c r="I11" t="n">
-        <v>157.8235203494671</v>
+        <v>157.8235203494674</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4502045330546</v>
+        <v>347.4502045330551</v>
       </c>
       <c r="K11" t="n">
-        <v>520.737789421011</v>
+        <v>520.7377894210118</v>
       </c>
       <c r="L11" t="n">
-        <v>646.021274561923</v>
+        <v>646.0212745619239</v>
       </c>
       <c r="M11" t="n">
-        <v>718.8231429236331</v>
+        <v>718.8231429236342</v>
       </c>
       <c r="N11" t="n">
-        <v>730.4544528825962</v>
+        <v>730.4544528825974</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7474266073867</v>
+        <v>689.7474266073878</v>
       </c>
       <c r="P11" t="n">
-        <v>588.683470738702</v>
+        <v>588.6834707387028</v>
       </c>
       <c r="Q11" t="n">
-        <v>442.0767702000782</v>
+        <v>442.0767702000789</v>
       </c>
       <c r="R11" t="n">
-        <v>257.1527581908363</v>
+        <v>257.1527581908367</v>
       </c>
       <c r="S11" t="n">
-        <v>93.2858691385379</v>
+        <v>93.28586913853805</v>
       </c>
       <c r="T11" t="n">
-        <v>17.9203024532726</v>
+        <v>17.92030245327263</v>
       </c>
       <c r="U11" t="n">
-        <v>0.327498388637763</v>
+        <v>0.3274983886377634</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.190338574480041</v>
+        <v>2.190338574480044</v>
       </c>
       <c r="H12" t="n">
-        <v>21.15405939037303</v>
+        <v>21.15405939037306</v>
       </c>
       <c r="I12" t="n">
-        <v>75.41297284942246</v>
+        <v>75.41297284942257</v>
       </c>
       <c r="J12" t="n">
-        <v>206.9389615476955</v>
+        <v>206.9389615476958</v>
       </c>
       <c r="K12" t="n">
-        <v>353.6916460378582</v>
+        <v>353.6916460378587</v>
       </c>
       <c r="L12" t="n">
-        <v>475.5820663580457</v>
+        <v>475.5820663580464</v>
       </c>
       <c r="M12" t="n">
-        <v>554.9818396829471</v>
+        <v>554.9818396829479</v>
       </c>
       <c r="N12" t="n">
-        <v>569.6705575793507</v>
+        <v>569.6705575793515</v>
       </c>
       <c r="O12" t="n">
-        <v>521.137266007977</v>
+        <v>521.1372660079778</v>
       </c>
       <c r="P12" t="n">
-        <v>418.258600244351</v>
+        <v>418.2586002443516</v>
       </c>
       <c r="Q12" t="n">
-        <v>279.5947976827505</v>
+        <v>279.5947976827509</v>
       </c>
       <c r="R12" t="n">
-        <v>135.9931265804363</v>
+        <v>135.9931265804365</v>
       </c>
       <c r="S12" t="n">
-        <v>40.68457834615336</v>
+        <v>40.68457834615342</v>
       </c>
       <c r="T12" t="n">
-        <v>8.828601534855951</v>
+        <v>8.828601534855963</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1441012220052659</v>
+        <v>0.1441012220052661</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.836306282602622</v>
+        <v>1.836306282602625</v>
       </c>
       <c r="H13" t="n">
-        <v>16.32643222168515</v>
+        <v>16.32643222168517</v>
       </c>
       <c r="I13" t="n">
-        <v>55.22273802590433</v>
+        <v>55.22273802590441</v>
       </c>
       <c r="J13" t="n">
-        <v>129.8268541800054</v>
+        <v>129.8268541800056</v>
       </c>
       <c r="K13" t="n">
-        <v>213.3454026514682</v>
+        <v>213.3454026514686</v>
       </c>
       <c r="L13" t="n">
-        <v>273.0086631425754</v>
+        <v>273.0086631425758</v>
       </c>
       <c r="M13" t="n">
-        <v>287.8493566447001</v>
+        <v>287.8493566447005</v>
       </c>
       <c r="N13" t="n">
-        <v>281.004942318636</v>
+        <v>281.0049423186364</v>
       </c>
       <c r="O13" t="n">
-        <v>259.5535461991417</v>
+        <v>259.553546199142</v>
       </c>
       <c r="P13" t="n">
-        <v>222.092898034048</v>
+        <v>222.0928980340483</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.7656106277523</v>
+        <v>153.7656106277526</v>
       </c>
       <c r="R13" t="n">
-        <v>82.56700794320517</v>
+        <v>82.56700794320528</v>
       </c>
       <c r="S13" t="n">
-        <v>32.00181039772023</v>
+        <v>32.00181039772028</v>
       </c>
       <c r="T13" t="n">
-        <v>7.846035934756658</v>
+        <v>7.846035934756668</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1001621608692341</v>
+        <v>0.1001621608692342</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,10 +33731,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,28 +33743,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>166.4043000063683</v>
+        <v>166.4043000063688</v>
       </c>
       <c r="K11" t="n">
-        <v>300.6479383760305</v>
+        <v>300.6479383760313</v>
       </c>
       <c r="L11" t="n">
-        <v>410.2548595919357</v>
+        <v>410.2548595919366</v>
       </c>
       <c r="M11" t="n">
-        <v>488.4769096963604</v>
+        <v>488.4769096963615</v>
       </c>
       <c r="N11" t="n">
-        <v>501.0413892860053</v>
+        <v>501.0413892860064</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6492151857</v>
+        <v>459.649215185701</v>
       </c>
       <c r="P11" t="n">
-        <v>357.4504749834325</v>
+        <v>357.4504749834333</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.7710803256287</v>
+        <v>219.7710803256294</v>
       </c>
       <c r="R11" t="n">
-        <v>41.56722037670414</v>
+        <v>41.56722037670454</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.10133488102878</v>
+        <v>80.10133488102906</v>
       </c>
       <c r="K12" t="n">
-        <v>215.8502070634992</v>
+        <v>215.8502070634997</v>
       </c>
       <c r="L12" t="n">
-        <v>337.0276865781715</v>
+        <v>337.0276865781722</v>
       </c>
       <c r="M12" t="n">
-        <v>412.8478057609288</v>
+        <v>412.8478057609296</v>
       </c>
       <c r="N12" t="n">
-        <v>438.3288454960174</v>
+        <v>438.3288454960182</v>
       </c>
       <c r="O12" t="n">
-        <v>378.5410215635326</v>
+        <v>378.5410215635334</v>
       </c>
       <c r="P12" t="n">
-        <v>485.78348027152</v>
+        <v>284.2841928300213</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.613023596729</v>
+        <v>341.1123110382225</v>
       </c>
       <c r="R12" t="n">
-        <v>35.83529242779314</v>
+        <v>35.83529242779333</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.46767406333262</v>
+        <v>36.46767406333279</v>
       </c>
       <c r="K13" t="n">
-        <v>191.0759108255854</v>
+        <v>191.0759108255857</v>
       </c>
       <c r="L13" t="n">
-        <v>300.5986884028915</v>
+        <v>300.5986884028919</v>
       </c>
       <c r="M13" t="n">
-        <v>327.4332336065407</v>
+        <v>327.4332336065411</v>
       </c>
       <c r="N13" t="n">
-        <v>325.1371146978646</v>
+        <v>325.1371146978651</v>
       </c>
       <c r="O13" t="n">
-        <v>284.1386741131814</v>
+        <v>284.1386741131817</v>
       </c>
       <c r="P13" t="n">
-        <v>219.3714572989415</v>
+        <v>219.3714572989418</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.60356737605794</v>
+        <v>67.60356737605817</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>592.2649153128095</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>112.9569980248056</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>605.6456348954932</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>112.9569980248065</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>632.5715920432249</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468757</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887918</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174807</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887918</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,19 +37391,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222296</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597695</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
